--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,12 +716,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance has been disabled</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,21 +797,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Precision Landing Locating Landing Point .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1007,26 +1007,26 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Initiating Return to Home will now trigger Auto Landing</t>
+          <t>Live stream video frame rate less than 9Hz</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7-15</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1061,37 +1061,37 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft GPS signal too weak</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1127,21 +1127,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>Motor Obstructed</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1157,16 +1157,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Motor Obstructed</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1217,21 +1217,21 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1247,11 +1247,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1277,21 +1277,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1346,20 +1346,50 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Ambient Light is too weak</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6-10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>22</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>0-5</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>Event</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem1/67/correct_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,12 +716,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning</t>
+          <t>Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance has been disabled</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,21 +797,21 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Precision Landing Locating Landing Point .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1007,26 +1007,26 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+          <t>Aircraft is close to the Home Point Initiating Return to Home will now trigger Auto Landing .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz</t>
+          <t>Initiating Return to Home will now trigger Auto Landing</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>7-15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Live stream video frame rate less than 9Hz</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1061,37 +1061,37 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak Home Point not updated .</t>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Home Point not updated</t>
+          <t>Aircraft GPS signal too weak</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1127,21 +1127,21 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
+          <t>Aircraft GPS signal too weak Home Point not updated .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Motor Obstructed</t>
+          <t>Home Point not updated</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1157,16 +1157,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Low Power Aircraft is returning to the Home Point .</t>
+          <t>Motor Obstructed Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Low Power</t>
+          <t>Motor Obstructed</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Low Power</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1217,21 +1217,21 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+          <t>Low Power Aircraft is returning to the Home Point .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Flight altitude restricted to nnn</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>2-8</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1247,11 +1247,11 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1277,21 +1277,21 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1360,36 +1360,6 @@
         </is>
       </c>
       <c r="F31" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>22</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
